--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.55966900000001</v>
+        <v>63.35160166666666</v>
       </c>
       <c r="H2">
-        <v>133.679007</v>
+        <v>190.054805</v>
       </c>
       <c r="I2">
-        <v>0.06090068036918207</v>
+        <v>0.05799618194253496</v>
       </c>
       <c r="J2">
-        <v>0.06124213504648319</v>
+        <v>0.05832031690831512</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>6158.99669193609</v>
+        <v>7724.380904846964</v>
       </c>
       <c r="R2">
-        <v>55430.9702274248</v>
+        <v>69519.42814362267</v>
       </c>
       <c r="S2">
-        <v>0.01369792506962221</v>
+        <v>0.01323607510940161</v>
       </c>
       <c r="T2">
-        <v>0.0151672210641175</v>
+        <v>0.0141118862384075</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.55966900000001</v>
+        <v>63.35160166666666</v>
       </c>
       <c r="H3">
-        <v>133.679007</v>
+        <v>190.054805</v>
       </c>
       <c r="I3">
-        <v>0.06090068036918207</v>
+        <v>0.05799618194253496</v>
       </c>
       <c r="J3">
-        <v>0.06124213504648319</v>
+        <v>0.05832031690831512</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>6591.013585156771</v>
+        <v>9370.609714951881</v>
       </c>
       <c r="R3">
-        <v>59319.12226641094</v>
+        <v>84335.48743456694</v>
       </c>
       <c r="S3">
-        <v>0.01465875283559518</v>
+        <v>0.0160569624330882</v>
       </c>
       <c r="T3">
-        <v>0.01623111118302119</v>
+        <v>0.01711942742219507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.55966900000001</v>
+        <v>63.35160166666666</v>
       </c>
       <c r="H4">
-        <v>133.679007</v>
+        <v>190.054805</v>
       </c>
       <c r="I4">
-        <v>0.06090068036918207</v>
+        <v>0.05799618194253496</v>
       </c>
       <c r="J4">
-        <v>0.06124213504648319</v>
+        <v>0.05832031690831512</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>3309.563244136996</v>
+        <v>5290.173554392549</v>
       </c>
       <c r="R4">
-        <v>29786.06919723297</v>
+        <v>47611.56198953294</v>
       </c>
       <c r="S4">
-        <v>0.007360638688233083</v>
+        <v>0.009064951012937798</v>
       </c>
       <c r="T4">
-        <v>0.008150171182138472</v>
+        <v>0.009664765150845259</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.55966900000001</v>
+        <v>63.35160166666666</v>
       </c>
       <c r="H5">
-        <v>133.679007</v>
+        <v>190.054805</v>
       </c>
       <c r="I5">
-        <v>0.06090068036918207</v>
+        <v>0.05799618194253496</v>
       </c>
       <c r="J5">
-        <v>0.06124213504648319</v>
+        <v>0.05832031690831512</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>7541.995591712392</v>
+        <v>5769.33296069577</v>
       </c>
       <c r="R5">
-        <v>45251.97355027434</v>
+        <v>34615.99776417463</v>
       </c>
       <c r="S5">
-        <v>0.01677378567615723</v>
+        <v>0.009886012269410285</v>
       </c>
       <c r="T5">
-        <v>0.01238200745194669</v>
+        <v>0.007026769861624829</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>44.55966900000001</v>
+        <v>63.35160166666666</v>
       </c>
       <c r="H6">
-        <v>133.679007</v>
+        <v>190.054805</v>
       </c>
       <c r="I6">
-        <v>0.06090068036918207</v>
+        <v>0.05799618194253496</v>
       </c>
       <c r="J6">
-        <v>0.06124213504648319</v>
+        <v>0.05832031690831512</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>3781.197767735004</v>
+        <v>5691.231047234049</v>
       </c>
       <c r="R6">
-        <v>34030.77990961503</v>
+        <v>51221.07942510644</v>
       </c>
       <c r="S6">
-        <v>0.008409578099574388</v>
+        <v>0.009752181117697057</v>
       </c>
       <c r="T6">
-        <v>0.009311624165259338</v>
+        <v>0.01039746823524246</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>940.8129269999999</v>
       </c>
       <c r="I7">
-        <v>0.4286099114606799</v>
+        <v>0.2870938079580828</v>
       </c>
       <c r="J7">
-        <v>0.4310130185872126</v>
+        <v>0.2886983470587841</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>43346.10074657204</v>
+        <v>38237.37794133635</v>
       </c>
       <c r="R7">
-        <v>390114.9067191483</v>
+        <v>344136.4014720271</v>
       </c>
       <c r="S7">
-        <v>0.09640395502472533</v>
+        <v>0.06552147190210728</v>
       </c>
       <c r="T7">
-        <v>0.1067446412419</v>
+        <v>0.0698569288866292</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>940.8129269999999</v>
       </c>
       <c r="I8">
-        <v>0.4286099114606799</v>
+        <v>0.2870938079580828</v>
       </c>
       <c r="J8">
-        <v>0.4310130185872126</v>
+        <v>0.2886983470587841</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>46386.57125084797</v>
+        <v>46386.57125084796</v>
       </c>
       <c r="R8">
         <v>417479.1412576317</v>
       </c>
       <c r="S8">
-        <v>0.1031661176345052</v>
+        <v>0.07948548222920621</v>
       </c>
       <c r="T8">
-        <v>0.1142321413306174</v>
+        <v>0.08474491671830876</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>940.8129269999999</v>
       </c>
       <c r="I9">
-        <v>0.4286099114606799</v>
+        <v>0.2870938079580828</v>
       </c>
       <c r="J9">
-        <v>0.4310130185872126</v>
+        <v>0.2886983470587841</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>23292.21283644142</v>
+        <v>26187.51820584619</v>
       </c>
       <c r="R9">
-        <v>209629.9155279728</v>
+        <v>235687.6638526157</v>
       </c>
       <c r="S9">
-        <v>0.05180307801707418</v>
+        <v>0.04487349370405881</v>
       </c>
       <c r="T9">
-        <v>0.0573596900328467</v>
+        <v>0.04784270510989882</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>940.8129269999999</v>
       </c>
       <c r="I10">
-        <v>0.4286099114606799</v>
+        <v>0.2870938079580828</v>
       </c>
       <c r="J10">
-        <v>0.4310130185872126</v>
+        <v>0.2886983470587841</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>53079.44087331551</v>
+        <v>28559.46225400492</v>
       </c>
       <c r="R10">
-        <v>318476.6452398931</v>
+        <v>171356.7735240295</v>
       </c>
       <c r="S10">
-        <v>0.1180514035300707</v>
+        <v>0.04893792682348549</v>
       </c>
       <c r="T10">
-        <v>0.08714272296323815</v>
+        <v>0.03478405042624753</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>940.8129269999999</v>
       </c>
       <c r="I11">
-        <v>0.4286099114606799</v>
+        <v>0.2870938079580828</v>
       </c>
       <c r="J11">
-        <v>0.4310130185872126</v>
+        <v>0.2886983470587841</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>26611.50631848002</v>
+        <v>28172.84066972967</v>
       </c>
       <c r="R11">
-        <v>239503.5568663202</v>
+        <v>253555.566027567</v>
       </c>
       <c r="S11">
-        <v>0.05918535725430452</v>
+        <v>0.04827543329922493</v>
       </c>
       <c r="T11">
-        <v>0.0655338230186103</v>
+        <v>0.0514697459176998</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>237.2525086666667</v>
+        <v>306.6739196666667</v>
       </c>
       <c r="H12">
-        <v>711.757526</v>
+        <v>920.021759</v>
       </c>
       <c r="I12">
-        <v>0.3242582254615775</v>
+        <v>0.2807492782203274</v>
       </c>
       <c r="J12">
-        <v>0.3260762591365057</v>
+        <v>0.2823183583673431</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>32792.82474094541</v>
+        <v>37392.36430914397</v>
       </c>
       <c r="R12">
-        <v>295135.4226685087</v>
+        <v>336531.2787822956</v>
       </c>
       <c r="S12">
-        <v>0.07293292699943288</v>
+        <v>0.06407350292673628</v>
       </c>
       <c r="T12">
-        <v>0.08075601385108551</v>
+        <v>0.06831314998780252</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>237.2525086666667</v>
+        <v>306.6739196666667</v>
       </c>
       <c r="H13">
-        <v>711.757526</v>
+        <v>920.021759</v>
       </c>
       <c r="I13">
-        <v>0.3242582254615775</v>
+        <v>0.2807492782203274</v>
       </c>
       <c r="J13">
-        <v>0.3260762591365057</v>
+        <v>0.2823183583673431</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>35093.04586024919</v>
+        <v>45361.46735596882</v>
       </c>
       <c r="R13">
-        <v>315837.4127422427</v>
+        <v>408253.2062037194</v>
       </c>
       <c r="S13">
-        <v>0.07804873694572481</v>
+        <v>0.07772892046526647</v>
       </c>
       <c r="T13">
-        <v>0.08642056669270511</v>
+        <v>0.08287212591147457</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>237.2525086666667</v>
+        <v>306.6739196666667</v>
       </c>
       <c r="H14">
-        <v>711.757526</v>
+        <v>920.021759</v>
       </c>
       <c r="I14">
-        <v>0.3242582254615775</v>
+        <v>0.2807492782203274</v>
       </c>
       <c r="J14">
-        <v>0.3260762591365057</v>
+        <v>0.2823183583673431</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>17621.36478757268</v>
+        <v>25608.79625709813</v>
       </c>
       <c r="R14">
-        <v>158592.2830881541</v>
+        <v>230479.1663138831</v>
       </c>
       <c r="S14">
-        <v>0.03919082060892825</v>
+        <v>0.04388182754007123</v>
       </c>
       <c r="T14">
-        <v>0.04339458982572614</v>
+        <v>0.04678542189134632</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>237.2525086666667</v>
+        <v>306.6739196666667</v>
       </c>
       <c r="H15">
-        <v>711.757526</v>
+        <v>920.021759</v>
       </c>
       <c r="I15">
-        <v>0.3242582254615775</v>
+        <v>0.2807492782203274</v>
       </c>
       <c r="J15">
-        <v>0.3260762591365057</v>
+        <v>0.2823183583673431</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>40156.43326449992</v>
+        <v>27928.32235289185</v>
       </c>
       <c r="R15">
-        <v>240938.5995869995</v>
+        <v>167569.9341173511</v>
       </c>
       <c r="S15">
-        <v>0.0893099706711309</v>
+        <v>0.04785644013366794</v>
       </c>
       <c r="T15">
-        <v>0.06592648455947266</v>
+        <v>0.03401535240416712</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>237.2525086666667</v>
+        <v>306.6739196666667</v>
       </c>
       <c r="H16">
-        <v>711.757526</v>
+        <v>920.021759</v>
       </c>
       <c r="I16">
-        <v>0.3242582254615775</v>
+        <v>0.2807492782203274</v>
       </c>
       <c r="J16">
-        <v>0.3260762591365057</v>
+        <v>0.2823183583673431</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>20132.52513522777</v>
+        <v>27550.24477782439</v>
       </c>
       <c r="R16">
-        <v>181192.7262170499</v>
+        <v>247952.2030004195</v>
       </c>
       <c r="S16">
-        <v>0.04477577023636065</v>
+        <v>0.04720858715458541</v>
       </c>
       <c r="T16">
-        <v>0.04957860420751629</v>
+        <v>0.0503323081725526</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.2383765</v>
+        <v>18.2131665</v>
       </c>
       <c r="H17">
-        <v>24.476753</v>
+        <v>36.426333</v>
       </c>
       <c r="I17">
-        <v>0.01672645852607678</v>
+        <v>0.01667351874766359</v>
       </c>
       <c r="J17">
-        <v>0.01121349302606215</v>
+        <v>0.01117780360442777</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>1691.577205794962</v>
+        <v>2220.708424542043</v>
       </c>
       <c r="R17">
-        <v>10149.46323476977</v>
+        <v>13324.25054725226</v>
       </c>
       <c r="S17">
-        <v>0.003762154612746904</v>
+        <v>0.003805284056470511</v>
       </c>
       <c r="T17">
-        <v>0.002777132565645114</v>
+        <v>0.002704715975891002</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.2383765</v>
+        <v>18.2131665</v>
       </c>
       <c r="H18">
-        <v>24.476753</v>
+        <v>36.426333</v>
       </c>
       <c r="I18">
-        <v>0.01672645852607678</v>
+        <v>0.01667351874766359</v>
       </c>
       <c r="J18">
-        <v>0.01121349302606215</v>
+        <v>0.01117780360442777</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>1810.231260285245</v>
+        <v>2693.988320025945</v>
       </c>
       <c r="R18">
-        <v>10861.38756171147</v>
+        <v>16163.92992015567</v>
       </c>
       <c r="S18">
-        <v>0.00402604732594527</v>
+        <v>0.004616270505942965</v>
       </c>
       <c r="T18">
-        <v>0.002971931855705268</v>
+        <v>0.003281148109095213</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.2383765</v>
+        <v>18.2131665</v>
       </c>
       <c r="H19">
-        <v>24.476753</v>
+        <v>36.426333</v>
       </c>
       <c r="I19">
-        <v>0.01672645852607678</v>
+        <v>0.01667351874766359</v>
       </c>
       <c r="J19">
-        <v>0.01121349302606215</v>
+        <v>0.01117780360442777</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>908.9762545657594</v>
+        <v>1520.889910045394</v>
       </c>
       <c r="R19">
-        <v>5453.857527394556</v>
+        <v>9125.339460272364</v>
       </c>
       <c r="S19">
-        <v>0.002021609890034475</v>
+        <v>0.00260611346468688</v>
       </c>
       <c r="T19">
-        <v>0.001492304075335639</v>
+        <v>0.00185237070828851</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.2383765</v>
+        <v>18.2131665</v>
       </c>
       <c r="H20">
-        <v>24.476753</v>
+        <v>36.426333</v>
       </c>
       <c r="I20">
-        <v>0.01672645852607678</v>
+        <v>0.01667351874766359</v>
       </c>
       <c r="J20">
-        <v>0.01121349302606215</v>
+        <v>0.01117780360442777</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>2071.419821648956</v>
+        <v>1658.645070411506</v>
       </c>
       <c r="R20">
-        <v>8285.679286595825</v>
+        <v>6634.580281646025</v>
       </c>
       <c r="S20">
-        <v>0.004606944105332541</v>
+        <v>0.002842163145790695</v>
       </c>
       <c r="T20">
-        <v>0.002267157310986448</v>
+        <v>0.001346766575535462</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.2383765</v>
+        <v>18.2131665</v>
       </c>
       <c r="H21">
-        <v>24.476753</v>
+        <v>36.426333</v>
       </c>
       <c r="I21">
-        <v>0.01672645852607678</v>
+        <v>0.01667351874766359</v>
       </c>
       <c r="J21">
-        <v>0.01121349302606215</v>
+        <v>0.01117780360442777</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>1038.511347615723</v>
+        <v>1636.191286822395</v>
       </c>
       <c r="R21">
-        <v>6231.068085694335</v>
+        <v>9817.14772093437</v>
       </c>
       <c r="S21">
-        <v>0.00230970259201759</v>
+        <v>0.002803687574772539</v>
       </c>
       <c r="T21">
-        <v>0.001704967218389676</v>
+        <v>0.001992802235617585</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>124.0228246666667</v>
+        <v>390.4979046666667</v>
       </c>
       <c r="H22">
-        <v>372.068474</v>
+        <v>1171.493714</v>
       </c>
       <c r="I22">
-        <v>0.1695047241824838</v>
+        <v>0.3574872131313914</v>
       </c>
       <c r="J22">
-        <v>0.1704550942037363</v>
+        <v>0.3594851740611298</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>17142.32138588304</v>
+        <v>47612.91709814889</v>
       </c>
       <c r="R22">
-        <v>154280.8924729473</v>
+        <v>428516.25388334</v>
       </c>
       <c r="S22">
-        <v>0.03812540347207004</v>
+        <v>0.08158688115617943</v>
       </c>
       <c r="T22">
-        <v>0.04221489164822157</v>
+        <v>0.0869853620432143</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>124.0228246666667</v>
+        <v>390.4979046666667</v>
       </c>
       <c r="H23">
-        <v>372.068474</v>
+        <v>1171.493714</v>
       </c>
       <c r="I23">
-        <v>0.1695047241824838</v>
+        <v>0.3574872131313914</v>
       </c>
       <c r="J23">
-        <v>0.1704550942037363</v>
+        <v>0.3594851740611298</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>18344.75301527747</v>
+        <v>57760.23593517387</v>
       </c>
       <c r="R23">
-        <v>165102.7771374973</v>
+        <v>519842.1234165649</v>
       </c>
       <c r="S23">
-        <v>0.0407996731923889</v>
+        <v>0.09897476970549088</v>
       </c>
       <c r="T23">
-        <v>0.04517601457939487</v>
+        <v>0.1055237809556078</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>124.0228246666667</v>
+        <v>390.4979046666667</v>
       </c>
       <c r="H24">
-        <v>372.068474</v>
+        <v>1171.493714</v>
       </c>
       <c r="I24">
-        <v>0.1695047241824838</v>
+        <v>0.3574872131313914</v>
       </c>
       <c r="J24">
-        <v>0.1704550942037363</v>
+        <v>0.3594851740611298</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>9211.499797066426</v>
+        <v>32608.51555392093</v>
       </c>
       <c r="R24">
-        <v>82903.49817359784</v>
+        <v>293476.6399852883</v>
       </c>
       <c r="S24">
-        <v>0.02048684880189336</v>
+        <v>0.05587616229631535</v>
       </c>
       <c r="T24">
-        <v>0.02268435278380724</v>
+        <v>0.05957340369006447</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>124.0228246666667</v>
+        <v>390.4979046666667</v>
       </c>
       <c r="H25">
-        <v>372.068474</v>
+        <v>1171.493714</v>
       </c>
       <c r="I25">
-        <v>0.1695047241824838</v>
+        <v>0.3574872131313914</v>
       </c>
       <c r="J25">
-        <v>0.1704550942037363</v>
+        <v>0.3594851740611298</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>20991.61905596109</v>
+        <v>35562.04378746491</v>
       </c>
       <c r="R25">
-        <v>125949.7143357665</v>
+        <v>213372.2627247895</v>
       </c>
       <c r="S25">
-        <v>0.04668643925317964</v>
+        <v>0.06093716615131634</v>
       </c>
       <c r="T25">
-        <v>0.03446281298081779</v>
+        <v>0.0433128576918544</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>124.0228246666667</v>
+        <v>390.4979046666667</v>
       </c>
       <c r="H26">
-        <v>372.068474</v>
+        <v>1171.493714</v>
       </c>
       <c r="I26">
-        <v>0.1695047241824838</v>
+        <v>0.3574872131313914</v>
       </c>
       <c r="J26">
-        <v>0.1704550942037363</v>
+        <v>0.3594851740611298</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>10524.19908634846</v>
+        <v>35080.62527940994</v>
       </c>
       <c r="R26">
-        <v>94717.79177713612</v>
+        <v>315725.6275146895</v>
       </c>
       <c r="S26">
-        <v>0.02340635946295189</v>
+        <v>0.06011223382208937</v>
       </c>
       <c r="T26">
-        <v>0.02591702221149477</v>
+        <v>0.06408976968038885</v>
       </c>
     </row>
   </sheetData>
